--- a/biology/Botanique/Fléole_hirsute/Fléole_hirsute.xlsx
+++ b/biology/Botanique/Fléole_hirsute/Fléole_hirsute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fl%C3%A9ole_hirsute</t>
+          <t>Fléole_hirsute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phleum hirsutum
 La fléole hirsute ou fléole hérissée (Phleum hirsutum ou Phleum Michelii) est une espèce de plantes herbacées vivaces de la famille des Poaceae. Elle est rangée dans le genre Phleum.
